--- a/12-15-24 to 12-21-24 Madison Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Madison Schedule.xlsx
@@ -1054,7 +1054,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">

--- a/12-15-24 to 12-21-24 Madison Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Madison Schedule.xlsx
@@ -2387,12 +2387,12 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver, 
 Corolla</t>
         </is>
       </c>
@@ -2427,13 +2427,13 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Corolla</t>
+          <t>@ Store, 
+w/ Nate</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2475,13 +2475,12 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>@ Store, 
-w/ Nate</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>

--- a/12-15-24 to 12-21-24 Madison Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Madison Schedule.xlsx
@@ -3167,7 +3167,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3398,16 +3398,8 @@
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -3445,16 +3437,8 @@
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3489,7 +3473,11 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3524,7 +3512,11 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -3551,11 +3543,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -3582,11 +3570,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>

--- a/12-15-24 to 12-21-24 Madison Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Madison Schedule.xlsx
@@ -2274,21 +2274,9 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
@@ -2398,7 +2386,11 @@
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>2:30 PM START</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2440,7 +2432,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>2:30 PM START</t>
+          <t>Paid Google Meet Efficiency Workshop</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2487,7 +2479,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Paid Google Meet Efficiency Workshop</t>
+          <t>https://meet.google.com/tdf-pdcy-uzm</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2526,7 +2518,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>https://meet.google.com/tdf-pdcy-uzm</t>
+          <t>Use the link to access the meeting</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2565,7 +2557,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Use the link to access the meeting</t>
+          <t>Please plan to be on the call about 10 minutes prior to the start</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2606,11 +2598,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Please plan to be on the call about 10 minutes prior to the start</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -2648,8 +2636,16 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -2685,12 +2681,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2740,12 +2736,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2787,12 +2783,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -2846,12 +2842,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -2906,12 +2902,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -2961,12 +2957,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3008,12 +3004,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3060,12 +3056,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3111,12 +3107,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3162,12 +3158,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3209,12 +3205,12 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3258,12 +3254,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3301,12 +3297,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3346,16 +3342,8 @@
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -3438,7 +3426,11 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3475,7 +3467,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -3512,11 +3504,7 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>

--- a/12-15-24 to 12-21-24 Madison Schedule.xlsx
+++ b/12-15-24 to 12-21-24 Madison Schedule.xlsx
@@ -1419,7 +1419,7 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1475,7 +1475,7 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1520,11 +1520,7 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>OLIVER'S CORNER MARKET - DIXON, IL</t>
-        </is>
-      </c>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
@@ -1575,11 +1571,7 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>748 N BRINTON AVE</t>
-        </is>
-      </c>
+      <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
@@ -1647,11 +1639,7 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/KvmCESx6EjkWUHWB8</t>
-        </is>
-      </c>
+      <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
@@ -1706,11 +1694,7 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1799,23 +1783,9 @@
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Driver,
-Prius, 
-Equip</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -1848,16 +1818,8 @@
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -1895,16 +1857,8 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2058,11 +2012,7 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2109,11 +2059,7 @@
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
